--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -426,7 +426,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,34 +434,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.66796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1887,273 +1888,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A1CB6FC-1B19-4773-8960-40CDC919108F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65668489-B4F4-4D10-B035-D581CBB37A31}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC796605-87DE-49DA-B46E-6D760BB4D6CD}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -245,6 +245,24 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati Generali</t>
   </si>
   <si>
@@ -345,24 +363,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -451,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1247,19 +1247,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
@@ -1336,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1347,16 +1347,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1367,502 +1367,502 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
@@ -1870,18 +1870,78 @@
         <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Documentazione attestante la residenza in Italia</t>
+  </si>
+  <si>
+    <t>Allegato aggiuntivo</t>
   </si>
   <si>
     <t>Formula</t>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -567,13 +570,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -587,13 +590,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -607,7 +610,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -647,7 +650,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -687,7 +690,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -706,60 +709,60 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -767,19 +770,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -787,19 +790,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -807,19 +810,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -827,99 +830,99 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -927,19 +930,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -947,19 +950,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -967,19 +970,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -987,139 +990,139 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1127,19 +1130,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1147,119 +1150,119 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1267,19 +1270,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1287,19 +1290,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1307,19 +1310,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1327,19 +1330,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1347,16 +1350,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>93</v>
@@ -1376,10 +1379,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1387,19 +1390,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1407,19 +1410,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1427,107 +1430,107 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>103</v>
@@ -1536,18 +1539,18 @@
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>104</v>
@@ -1556,18 +1559,18 @@
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>105</v>
@@ -1576,18 +1579,18 @@
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>106</v>
@@ -1596,18 +1599,18 @@
         <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>107</v>
@@ -1616,18 +1619,18 @@
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
@@ -1636,18 +1639,18 @@
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1656,18 +1659,18 @@
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>110</v>
@@ -1676,18 +1679,18 @@
         <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -1696,18 +1699,18 @@
         <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>112</v>
@@ -1716,18 +1719,18 @@
         <v>11</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>113</v>
@@ -1736,18 +1739,18 @@
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>114</v>
@@ -1756,18 +1759,18 @@
         <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>115</v>
@@ -1776,18 +1779,18 @@
         <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>116</v>
@@ -1796,152 +1799,172 @@
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -56,7 +56,7 @@
     <t>Documentazione attestante la residenza in Italia</t>
   </si>
   <si>
-    <t>Allegato aggiuntivo</t>
+    <t>Allegato generico</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,6 +475,7 @@
     <col min="4" max="4" width="44.66796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,245 +497,284 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -747,1225 +796,1411 @@
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -2188,7 +2188,7 @@
         <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>37</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Ricevuta pagamento contributo di 250,00</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Documentazione attestante la residenza in Italia</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Ricevuta pagamento contributo di 250,00</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Documentazione attestante la residenza in Italia</t>
-  </si>
-  <si>
-    <t>Allegato generico</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -797,1410 +800,1410 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -302,6 +302,9 @@
     <t>numeroDocumento</t>
   </si>
   <si>
+    <t>Tipologia documento</t>
+  </si>
+  <si>
     <t>tipologiaDocumento</t>
   </si>
   <si>
@@ -332,7 +335,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -478,7 +481,7 @@
     <col min="4" max="4" width="44.66796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1530,7 +1533,7 @@
         <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,7 +1547,7 @@
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1553,7 +1556,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,7 +1570,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1576,7 +1579,7 @@
         <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,7 +1593,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1599,7 +1602,7 @@
         <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -1619,21 +1622,21 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>43</v>
@@ -1642,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>44</v>
@@ -1651,12 +1654,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>47</v>
@@ -1665,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>48</v>
@@ -1674,12 +1677,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>49</v>
@@ -1688,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>50</v>
@@ -1697,21 +1700,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>52</v>
@@ -1720,21 +1723,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>54</v>
@@ -1743,21 +1746,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>56</v>
@@ -1766,44 +1769,44 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>60</v>
@@ -1812,44 +1815,44 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>64</v>
@@ -1858,21 +1861,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>66</v>
@@ -1881,21 +1884,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>68</v>
@@ -1904,21 +1907,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>70</v>
@@ -1927,21 +1930,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>72</v>
@@ -1950,44 +1953,44 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>76</v>
@@ -1996,58 +1999,58 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>81</v>
@@ -2056,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>82</v>
@@ -2065,12 +2068,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>83</v>
@@ -2079,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>84</v>
@@ -2088,12 +2091,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
@@ -2102,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>86</v>
@@ -2111,24 +2114,24 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2142,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>19</v>
@@ -2162,10 +2165,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2174,7 +2177,7 @@
         <v>27</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -2197,7 +2200,7 @@
         <v>38</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1191,7 +1197,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>29</v>
@@ -1214,7 +1220,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>29</v>
@@ -1228,7 +1234,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>41</v>
@@ -1237,7 +1243,7 @@
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>29</v>
@@ -1274,7 +1280,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1306,7 +1312,7 @@
         <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>29</v>
@@ -1329,7 +1335,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>29</v>
@@ -1352,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
@@ -1389,7 +1395,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1398,7 +1404,7 @@
         <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>29</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>90</v>
@@ -1484,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>91</v>
@@ -1498,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,16 +1527,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
@@ -1553,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
@@ -1576,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>101</v>
@@ -1590,7 +1596,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>102</v>
@@ -1599,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>103</v>
@@ -1613,283 +1619,283 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>116</v>
@@ -1898,21 +1904,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>117</v>
@@ -1921,67 +1927,67 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -1990,21 +1996,21 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
@@ -2013,21 +2019,21 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>122</v>
@@ -2036,148 +2042,148 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,24 +2194,70 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -284,7 +284,7 @@
     <t>Dati Generali</t>
   </si>
   <si>
-    <t>Riassunto della dichiarazione</t>
+    <t>Riassunto della dichiarazione (per annotazione su atto di nascita)</t>
   </si>
   <si>
     <t>riassuntoDichiarazione</t>
@@ -482,7 +482,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.03515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.66796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -341,7 +341,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -487,7 +490,7 @@
     <col min="4" max="4" width="44.66796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2151,7 +2154,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2171,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
@@ -2217,10 +2220,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2229,7 +2232,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2252,7 +2255,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2154,7 +2151,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2174,19 +2171,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2194,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
@@ -2220,10 +2217,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2232,7 +2229,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,10 +2240,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2255,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2151,7 +2154,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2171,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>19</v>
@@ -2217,10 +2220,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2229,7 +2232,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2252,7 +2255,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -478,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1421,7 +1445,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1444,7 +1468,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -1453,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
@@ -1467,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -1484,22 +1508,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1507,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,16 +1646,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>105</v>
@@ -1645,622 +1669,714 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -384,12 +390,6 @@
   </si>
   <si>
     <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1031,7 +1031,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1123,7 +1123,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1155,7 +1155,7 @@
         <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
@@ -1178,7 +1178,7 @@
         <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>29</v>
@@ -1201,7 +1201,7 @@
         <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>29</v>
@@ -1247,7 +1247,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>29</v>
@@ -1270,7 +1270,7 @@
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>29</v>
@@ -1284,7 +1284,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1293,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>29</v>
@@ -1330,7 +1330,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>41</v>
@@ -1362,7 +1362,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>29</v>
@@ -1385,7 +1385,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
@@ -1408,7 +1408,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>29</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>29</v>
@@ -1477,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
@@ -1500,7 +1500,7 @@
         <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>29</v>
@@ -1523,7 +1523,7 @@
         <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1537,7 +1537,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>41</v>
@@ -1546,7 +1546,7 @@
         <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>29</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>100</v>
@@ -1632,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
@@ -1646,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>107</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>108</v>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>109</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>110</v>
@@ -1724,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>111</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
@@ -1747,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>113</v>
@@ -1761,191 +1761,191 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>122</v>
@@ -1954,21 +1954,21 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>123</v>
@@ -1977,361 +1977,361 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
@@ -2339,16 +2339,16 @@
         <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,21 +2362,67 @@
         <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1307,7 +1313,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1316,7 +1322,7 @@
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>29</v>
@@ -1330,7 +1336,7 @@
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>41</v>
@@ -1362,7 +1368,7 @@
         <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>29</v>
@@ -1385,7 +1391,7 @@
         <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
@@ -1408,7 +1414,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>29</v>
@@ -1431,7 +1437,7 @@
         <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>29</v>
@@ -1477,7 +1483,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>29</v>
@@ -1500,7 +1506,7 @@
         <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>29</v>
@@ -1523,7 +1529,7 @@
         <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>29</v>
@@ -1546,7 +1552,7 @@
         <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>29</v>
@@ -1560,7 +1566,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>41</v>
@@ -1569,7 +1575,7 @@
         <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>29</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>102</v>
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>103</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,16 +1698,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>109</v>
@@ -1715,7 +1721,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>110</v>
@@ -1724,7 +1730,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>111</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
@@ -1747,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>113</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>114</v>
@@ -1770,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>115</v>
@@ -1784,375 +1790,375 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>128</v>
@@ -2161,21 +2167,21 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>129</v>
@@ -2184,21 +2190,21 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>130</v>
@@ -2207,21 +2213,21 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>131</v>
@@ -2230,21 +2236,21 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>132</v>
@@ -2253,148 +2259,148 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,24 +2411,70 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2138,7 +2144,7 @@
         <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -2147,7 +2153,7 @@
         <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>120</v>
@@ -2161,7 +2167,7 @@
         <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -2170,10 +2176,10 @@
         <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>121</v>
@@ -2184,7 +2190,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -2193,10 +2199,10 @@
         <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>121</v>
@@ -2207,7 +2213,7 @@
         <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -2216,10 +2222,10 @@
         <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>121</v>
@@ -2230,7 +2236,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -2239,10 +2245,10 @@
         <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>121</v>
@@ -2253,7 +2259,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -2262,10 +2268,10 @@
         <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>121</v>
@@ -2276,7 +2282,7 @@
         <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2285,10 +2291,10 @@
         <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>121</v>
@@ -2299,7 +2305,7 @@
         <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2308,7 +2314,7 @@
         <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>120</v>
@@ -2322,19 +2328,19 @@
         <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>121</v>
@@ -2345,7 +2351,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2354,7 +2360,7 @@
         <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,7 +2374,7 @@
         <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2377,7 +2383,7 @@
         <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>137</v>
@@ -2397,36 +2403,36 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>29</v>
@@ -2434,22 +2440,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>29</v>
@@ -2457,16 +2463,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>145</v>
@@ -2475,6 +2481,29 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,13 +47,10 @@
     <t/>
   </si>
   <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
   </si>
   <si>
     <t>Documentazione attestante la residenza in Italia</t>
@@ -514,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -606,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -629,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -646,13 +643,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -669,13 +666,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -692,7 +689,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -715,7 +712,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -738,7 +735,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -761,7 +758,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -784,7 +781,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -806,1135 +803,1135 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>122</v>
@@ -1943,44 +1940,44 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>124</v>
@@ -1989,21 +1986,21 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>125</v>
@@ -2012,21 +2009,21 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>126</v>
@@ -2035,159 +2032,159 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>130</v>
@@ -2196,21 +2193,21 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>131</v>
@@ -2219,21 +2216,21 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>132</v>
@@ -2242,21 +2239,21 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>133</v>
@@ -2265,21 +2262,21 @@
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>134</v>
@@ -2288,21 +2285,21 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>135</v>
@@ -2311,200 +2308,177 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,81 @@
   </si>
   <si>
     <t>dataRilascio</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -511,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1796,22 +1871,22 @@
         <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
@@ -1819,22 +1894,22 @@
         <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
@@ -1842,22 +1917,22 @@
         <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -1865,22 +1940,22 @@
         <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -1888,22 +1963,22 @@
         <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -1911,22 +1986,22 @@
         <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62">
@@ -1934,22 +2009,22 @@
         <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
@@ -1957,22 +2032,22 @@
         <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
@@ -1980,22 +2055,22 @@
         <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
@@ -2003,22 +2078,22 @@
         <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
@@ -2026,22 +2101,22 @@
         <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
@@ -2049,435 +2124,711 @@
         <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -2426,7 +2426,7 @@
         <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>143</v>
@@ -2449,7 +2449,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>143</v>
@@ -2458,7 +2458,7 @@
         <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>145</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -586,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1138,7 +1150,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1161,7 +1173,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>40</v>
@@ -1170,7 +1182,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
@@ -1207,7 +1219,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1230,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>40</v>
@@ -1239,7 +1251,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1308,7 +1320,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1331,7 +1343,7 @@
         <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1377,7 +1389,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
@@ -1400,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1538,7 +1550,7 @@
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1561,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1644,7 +1656,7 @@
         <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>40</v>
@@ -1667,7 +1679,7 @@
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>40</v>
@@ -1676,7 +1688,7 @@
         <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1707,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1799,16 +1811,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>112</v>
@@ -1822,7 +1834,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>113</v>
@@ -1831,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>114</v>
@@ -1845,7 +1857,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>115</v>
@@ -1854,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>116</v>
@@ -1868,76 +1880,76 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>126</v>
@@ -1946,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>127</v>
@@ -1955,12 +1967,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>128</v>
@@ -1969,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>129</v>
@@ -1978,12 +1990,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>130</v>
@@ -1992,113 +2004,113 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>138</v>
@@ -2107,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>139</v>
@@ -2116,12 +2128,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>140</v>
@@ -2130,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>141</v>
@@ -2139,426 +2151,426 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>156</v>
@@ -2567,44 +2579,44 @@
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>158</v>
@@ -2613,21 +2625,21 @@
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>159</v>
@@ -2636,21 +2648,21 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>160</v>
@@ -2659,176 +2671,268 @@
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_011.xlsx
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
